--- a/yield_duration.xlsx
+++ b/yield_duration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C707"/>
+  <dimension ref="A1:C704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0.463</v>
@@ -5913,3718 +5913,3679 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>BBG00JS9XFJ8</t>
+          <t>BBG00ZHZW6V3</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>4.544</v>
+        <v>4.972</v>
       </c>
       <c r="C422" t="n">
-        <v>3.982</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>BBG00ZHZW6V3</t>
+          <t>BBG01KR4STF6</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>4.972</v>
+        <v>3.738</v>
       </c>
       <c r="C423" t="n">
-        <v>0.531</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>BBG01KR4STF6</t>
+          <t>BBG00SK8H624</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>3.738</v>
+        <v>4.325</v>
       </c>
       <c r="C424" t="n">
-        <v>3.116</v>
+        <v>4.076</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BBG00SK8H624</t>
+          <t>BBG01JZY4GQ6</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>4.325</v>
+        <v>4.149</v>
       </c>
       <c r="C425" t="n">
-        <v>4.076</v>
+        <v>6.772</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>BBG01JZY4GQ6</t>
+          <t>BBG00G7591J3</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>4.149</v>
+        <v>4.381</v>
       </c>
       <c r="C426" t="n">
-        <v>6.772</v>
+        <v>2.387</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>BBG00G7591J3</t>
+          <t>BBG01L0NF8T6</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>4.381</v>
+        <v>4.802</v>
       </c>
       <c r="C427" t="n">
-        <v>2.387</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>BBG01L0NF8T6</t>
+          <t>BBG00TGKZJN9</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>4.802</v>
+        <v>6.489</v>
       </c>
       <c r="C428" t="n">
-        <v>1.359</v>
+        <v>3.708</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>BBG00TGKZJN9</t>
+          <t>BBG01KR4SPQ2</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>6.489</v>
+        <v>4.143</v>
       </c>
       <c r="C429" t="n">
-        <v>3.708</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>BBG01KR4SPQ2</t>
+          <t>BBG01L3G1GR7</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>4.143</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>0.356</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>BBG01L3G1GR7</t>
+          <t>BBG014KF8D61</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>3</v>
+        <v>5.266</v>
       </c>
       <c r="C431" t="n">
-        <v>1.425</v>
+        <v>5.618</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>BBG014KF8D61</t>
+          <t>BBG01H2KY7W6</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>5.266</v>
+        <v>8.446999999999999</v>
       </c>
       <c r="C432" t="n">
-        <v>5.618</v>
+        <v>3.933</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>BBG01H2KY7W6</t>
+          <t>BBG007P9GC58</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>8.446999999999999</v>
+        <v>4.185</v>
       </c>
       <c r="C433" t="n">
-        <v>3.933</v>
+        <v>1.263</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>BBG007P9GC58</t>
+          <t>BBG01LQT6JN7</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>4.185</v>
+        <v>4.751</v>
       </c>
       <c r="C434" t="n">
-        <v>1.263</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>BBG01LQT6JN7</t>
+          <t>BBG01LGW2TC5</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>4.751</v>
+        <v>4.349</v>
       </c>
       <c r="C435" t="n">
-        <v>0.003</v>
+        <v>3.099</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>BBG01LGW2TC5</t>
+          <t>BBG00SZT9Q90</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>4.349</v>
+        <v>4.38</v>
       </c>
       <c r="C436" t="n">
-        <v>3.099</v>
+        <v>1.481</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>BBG00SZT9Q90</t>
+          <t>BBG00QX4FKY9</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>4.38</v>
+        <v>5.729</v>
       </c>
       <c r="C437" t="n">
-        <v>1.481</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>BBG00QX4FKY9</t>
+          <t>BBG0033KCB98</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>5.729</v>
+        <v>6.847</v>
       </c>
       <c r="C438" t="n">
-        <v>0.315</v>
+        <v>10.575</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>BBG0033KCB98</t>
+          <t>BBG0000G6XK2</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>6.847</v>
+        <v>9.076000000000001</v>
       </c>
       <c r="C439" t="n">
-        <v>10.575</v>
+        <v>7.565</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BBG0000G6XK2</t>
+          <t>BBG016W2FF41</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>9.076000000000001</v>
+        <v>4.324</v>
       </c>
       <c r="C440" t="n">
-        <v>7.565</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>BBG016W2FF41</t>
+          <t>BBG00T419VW6</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>4.324</v>
+        <v>5.438</v>
       </c>
       <c r="C441" t="n">
-        <v>0.801</v>
+        <v>2.157</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>BBG00T419VW6</t>
+          <t>BBG00004GX28</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>5.438</v>
+        <v>4.162</v>
       </c>
       <c r="C442" t="n">
-        <v>2.157</v>
+        <v>1.726</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>BBG00004GX28</t>
+          <t>BBG01DMR0CM5</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>4.162</v>
+        <v>4.383</v>
       </c>
       <c r="C443" t="n">
-        <v>1.726</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>BBG01DMR0CM5</t>
+          <t>BBG01LG6KYT3</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>4.383</v>
+        <v>5.067</v>
       </c>
       <c r="C444" t="n">
-        <v>0.46</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>BBG01LG6KYT3</t>
+          <t>BBG01K7FNPT1</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>5.067</v>
+        <v>4.954</v>
       </c>
       <c r="C445" t="n">
-        <v>0.003</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>BBG01K7FNPT1</t>
+          <t>BBG01HQX22N8</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>4.954</v>
+        <v>4.242</v>
       </c>
       <c r="C446" t="n">
-        <v>0.438</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BBG01HQX22N8</t>
+          <t>BBG0000DMZK6</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>4.242</v>
+        <v>4.366</v>
       </c>
       <c r="C447" t="n">
-        <v>0.852</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>BBG0000DMZK6</t>
+          <t>BBG01BTR1K34</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>4.366</v>
+        <v>3.919</v>
       </c>
       <c r="C448" t="n">
-        <v>1.003</v>
+        <v>2.056</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>BBG01BTR1K34</t>
+          <t>BBG01M44ZLG5</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>3.919</v>
+        <v>4.027</v>
       </c>
       <c r="C449" t="n">
-        <v>2.056</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BBG01M44ZLG5</t>
+          <t>BBG016Z4HSV4</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>4.027</v>
+        <v>5.394</v>
       </c>
       <c r="C450" t="n">
-        <v>0.589</v>
+        <v>2.494</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>BBG016Z4HSV4</t>
+          <t>BBG00QDWFWP3</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>5.394</v>
+        <v>4.617</v>
       </c>
       <c r="C451" t="n">
-        <v>2.494</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BBG00QDWFWP3</t>
+          <t>BBG00QYZP811</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>4.617</v>
+        <v>5.244</v>
       </c>
       <c r="C452" t="n">
-        <v>1.073</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>BBG00QYZP811</t>
+          <t>BBG00SXGDG79</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>5.244</v>
+        <v>4.279</v>
       </c>
       <c r="C453" t="n">
-        <v>2.57</v>
+        <v>1.539</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>BBG00SXGDG79</t>
+          <t>BBG00RDQLVK4</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>4.279</v>
+        <v>6.071</v>
       </c>
       <c r="C454" t="n">
-        <v>1.539</v>
+        <v>3.887</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BBG00SXGDG79</t>
+          <t>BBG019SQLBS3</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>4.279</v>
+        <v>5.138</v>
       </c>
       <c r="C455" t="n">
-        <v>1.539</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BBG00RDQLVK4</t>
+          <t>BBG00XC9BP88</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>6.071</v>
+        <v>6.155</v>
       </c>
       <c r="C456" t="n">
-        <v>3.887</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>BBG019SQLBS3</t>
+          <t>BBG01GDD7PH9</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>5.138</v>
+        <v>4.753</v>
       </c>
       <c r="C457" t="n">
-        <v>0.349</v>
+        <v>2.023</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BBG00XC9BP88</t>
+          <t>BBG00CNJBNP6</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>6.155</v>
+        <v>4.501</v>
       </c>
       <c r="C458" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>BBG01GDD7PH9</t>
+          <t>BBG00CCNVYQ2</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>4.753</v>
+        <v>4.952</v>
       </c>
       <c r="C459" t="n">
-        <v>2.023</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>BBG00CNJBNP6</t>
+          <t>BBG00N5C8FN0</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>4.501</v>
+        <v>5.578</v>
       </c>
       <c r="C460" t="n">
-        <v>0.618</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BBG00CCNVYQ2</t>
+          <t>BBG01F3N9MH5</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>4.952</v>
+        <v>5.641</v>
       </c>
       <c r="C461" t="n">
-        <v>0.315</v>
+        <v>1.404</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>BBG00N5C8FN0</t>
+          <t>BBG00KMZ1QG7</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>5.578</v>
+        <v>7.102</v>
       </c>
       <c r="C462" t="n">
-        <v>0.025</v>
+        <v>11.467</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BBG01F3N9MH5</t>
+          <t>BBG00NW1VF94</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>5.641</v>
+        <v>5.583</v>
       </c>
       <c r="C463" t="n">
-        <v>1.404</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BBG00KMZ1QG7</t>
+          <t>BBG01J2RTY18</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>7.102</v>
+        <v>3.72</v>
       </c>
       <c r="C464" t="n">
-        <v>11.467</v>
+        <v>2.764</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>BBG00NW1VF94</t>
+          <t>BBG00Y6TNGB2</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>5.583</v>
+        <v>5.095</v>
       </c>
       <c r="C465" t="n">
-        <v>0.036</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>BBG01J2RTY18</t>
+          <t>BBG01N1MHZ66</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>3.72</v>
+        <v>3.995</v>
       </c>
       <c r="C466" t="n">
-        <v>2.764</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>BBG00Y6TNGB2</t>
+          <t>BBG01MPC8VJ9</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>5.095</v>
+        <v>4.203</v>
       </c>
       <c r="C467" t="n">
-        <v>0.279</v>
+        <v>7.133</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BBG01N1MHZ66</t>
+          <t>BBG00M546C59</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>3.995</v>
+        <v>5.587</v>
       </c>
       <c r="C468" t="n">
-        <v>0.752</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>BBG01MPC8VJ9</t>
+          <t>BBG01MDD8972</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>4.203</v>
+        <v>5.399</v>
       </c>
       <c r="C469" t="n">
-        <v>7.133</v>
+        <v>6.418</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>BBG00M546C59</t>
+          <t>BBG00ZSKL1Z3</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>5.587</v>
+        <v>4.825</v>
       </c>
       <c r="C470" t="n">
-        <v>0.395</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>BBG01MDD8972</t>
+          <t>BBG00CGX6Z54</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>5.399</v>
+        <v>4.282</v>
       </c>
       <c r="C471" t="n">
-        <v>6.418</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>BBG00ZSKL1Z3</t>
+          <t>BBG00007ZMW1</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>4.825</v>
+        <v>4.727</v>
       </c>
       <c r="C472" t="n">
-        <v>1.94</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>BBG00CGX6Z54</t>
+          <t>BBG019LVBKP3</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>4.282</v>
+        <v>6.581</v>
       </c>
       <c r="C473" t="n">
-        <v>0.593</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>BBG00007ZMW1</t>
+          <t>BBG00G9J3NC6</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>4.727</v>
+        <v>4.625</v>
       </c>
       <c r="C474" t="n">
-        <v>0.6820000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>BBG019LVBKP3</t>
+          <t>BBG01MW71TR5</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>6.581</v>
+        <v>7.426</v>
       </c>
       <c r="C475" t="n">
-        <v>2.172</v>
+        <v>2.443</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BBG00G9J3NC6</t>
+          <t>BBG01N09R3C9</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>4.625</v>
+        <v>6.47</v>
       </c>
       <c r="C476" t="n">
-        <v>1.5</v>
+        <v>3.455</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>BBG01MW71TR5</t>
+          <t>BBG00HZ5VRY1</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>7.426</v>
+        <v>6.97</v>
       </c>
       <c r="C477" t="n">
-        <v>2.443</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>BBG01N09R3C9</t>
+          <t>BBG00H903HV7</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>6.47</v>
+        <v>4.527</v>
       </c>
       <c r="C478" t="n">
-        <v>3.455</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>BBG00HZ5VRY1</t>
+          <t>BBG014CRC940</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>6.97</v>
+        <v>4.932</v>
       </c>
       <c r="C479" t="n">
-        <v>0.202</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>BBG00H903HV7</t>
+          <t>BBG00P344Z19</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>4.527</v>
+        <v>5.471</v>
       </c>
       <c r="C480" t="n">
-        <v>1.852</v>
+        <v>3.385</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>BBG014CRC940</t>
+          <t>BBG01L3DFJ02</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>4.932</v>
+        <v>4.16</v>
       </c>
       <c r="C481" t="n">
-        <v>1.101</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>BBG00P344Z19</t>
+          <t>BBG01LM16BS4</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>5.471</v>
+        <v>5.219</v>
       </c>
       <c r="C482" t="n">
-        <v>3.385</v>
+        <v>6.505</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>BBG01L3DFJ02</t>
+          <t>BBG01NWT5Y09</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>4.16</v>
+        <v>3.937</v>
       </c>
       <c r="C483" t="n">
-        <v>0.438</v>
+        <v>5.223</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>BBG01LM16BS4</t>
+          <t>BBG01NWT5SZ4</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>5.219</v>
+        <v>3.771</v>
       </c>
       <c r="C484" t="n">
-        <v>6.505</v>
+        <v>3.615</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>BBG01NWT5Y09</t>
+          <t>BBG01P51D7R6</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>3.937</v>
+        <v>4.262</v>
       </c>
       <c r="C485" t="n">
-        <v>5.223</v>
+        <v>5.072</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>BBG01NWT5SZ4</t>
+          <t>BBG00P7D7KR7</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>3.771</v>
+        <v>4.207</v>
       </c>
       <c r="C486" t="n">
-        <v>3.615</v>
+        <v>3.464</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>BBG01P51D7R6</t>
+          <t>BBG01NY6JWQ8</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>4.262</v>
+        <v>4.335</v>
       </c>
       <c r="C487" t="n">
-        <v>5.072</v>
+        <v>3.855</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>BBG00P7D7KR7</t>
+          <t>BBG01P1YBK73</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>4.207</v>
+        <v>3.744</v>
       </c>
       <c r="C488" t="n">
-        <v>3.464</v>
+        <v>1.896</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>BBG01NY6JWQ8</t>
+          <t>BBG01PD85MW2</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>4.335</v>
+        <v>5.832</v>
       </c>
       <c r="C489" t="n">
-        <v>3.855</v>
+        <v>3.381</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>BBG01P1YBK73</t>
+          <t>BBG01P7G4K29</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>3.744</v>
+        <v>4.655</v>
       </c>
       <c r="C490" t="n">
-        <v>1.896</v>
+        <v>3.433</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>BBG01PD85MW2</t>
+          <t>BBG014C6ZJR4</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>5.832</v>
+        <v>4.951</v>
       </c>
       <c r="C491" t="n">
-        <v>3.381</v>
+        <v>1.329</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>BBG01P7G4K29</t>
+          <t>BBG01GKRF8Q9</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>4.655</v>
+        <v>5.334</v>
       </c>
       <c r="C492" t="n">
-        <v>3.433</v>
+        <v>2.483</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>BBG014C6ZJR4</t>
+          <t>BBG012YGTS71</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>4.951</v>
+        <v>4.923</v>
       </c>
       <c r="C493" t="n">
-        <v>1.329</v>
+        <v>2.955</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>BBG01GKRF8Q9</t>
+          <t>BBG01LNT2G05</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>5.334</v>
+        <v>5.428</v>
       </c>
       <c r="C494" t="n">
-        <v>2.483</v>
+        <v>4.301</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>BBG012YGTS71</t>
+          <t>BBG01F3YX1P1</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>4.923</v>
+        <v>6.351</v>
       </c>
       <c r="C495" t="n">
-        <v>2.955</v>
+        <v>14.369</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>BBG01LNT2G05</t>
+          <t>BBG01PM08QC9</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>5.428</v>
+        <v>5.621</v>
       </c>
       <c r="C496" t="n">
-        <v>4.301</v>
+        <v>6.876</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>BBG01F3YX1P1</t>
+          <t>BBG00W2RQPK1</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>6.351</v>
+        <v>4.928</v>
       </c>
       <c r="C497" t="n">
-        <v>14.369</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>BBG01PM08QC9</t>
+          <t>BBG01MJL12V3</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>5.621</v>
+        <v>5.712</v>
       </c>
       <c r="C498" t="n">
-        <v>6.876</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>BBG00W2RQPK1</t>
+          <t>BBG01GY4MTG2</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>4.928</v>
+        <v>5.274</v>
       </c>
       <c r="C499" t="n">
-        <v>3.69</v>
+        <v>5.983</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>BBG01MJL12V3</t>
+          <t>BBG00T7QVY11</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>5.712</v>
+        <v>5.646</v>
       </c>
       <c r="C500" t="n">
-        <v>3.14</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>BBG01GY4MTG2</t>
+          <t>BBG00TFTFFJ6</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>5.274</v>
+        <v>4.988</v>
       </c>
       <c r="C501" t="n">
-        <v>5.983</v>
+        <v>4.064</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>BBG00T7QVY11</t>
+          <t>BBG0043R3XT1</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>5.646</v>
+        <v>4.964</v>
       </c>
       <c r="C502" t="n">
-        <v>0.078</v>
+        <v>2.307</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>BBG00TFTFFJ6</t>
+          <t>BBG01DMTY8L4</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>4.988</v>
+        <v>5.347</v>
       </c>
       <c r="C503" t="n">
-        <v>4.064</v>
+        <v>6.097</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>BBG0043R3XT1</t>
+          <t>BBG00Y6TNGH6</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>4.964</v>
+        <v>4.603</v>
       </c>
       <c r="C504" t="n">
-        <v>2.307</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>BBG01DMTY8L4</t>
+          <t>BBG00ZL68GN6</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>5.347</v>
+        <v>4.704</v>
       </c>
       <c r="C505" t="n">
-        <v>6.097</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>BBG00Y6TNGH6</t>
+          <t>BBG00X8R2QB7</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>4.603</v>
+        <v>4.857</v>
       </c>
       <c r="C506" t="n">
-        <v>2.172</v>
+        <v>1.985</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>BBG00ZL68GN6</t>
+          <t>BBG01PKMBJ80</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>4.704</v>
+        <v>4.628</v>
       </c>
       <c r="C507" t="n">
-        <v>0.592</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>BBG00X8R2QB7</t>
+          <t>BBG00HWFN5T5</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>4.857</v>
+        <v>20.471</v>
       </c>
       <c r="C508" t="n">
-        <v>1.985</v>
+        <v>2.046</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>BBG01PKMBJ80</t>
+          <t>BBG01LR4THF9</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>4.628</v>
+        <v>4.907</v>
       </c>
       <c r="C509" t="n">
-        <v>3.48</v>
+        <v>3.204</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>BBG00HWFN5T5</t>
+          <t>BBG00YG9FW56</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>20.471</v>
+        <v>5.804</v>
       </c>
       <c r="C510" t="n">
-        <v>2.046</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>BBG01LR4THF9</t>
+          <t>BBG000047X82</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>4.907</v>
+        <v>7.331</v>
       </c>
       <c r="C511" t="n">
-        <v>3.204</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>BBG00YG9FW56</t>
+          <t>BBG01KWPWXN0</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>5.804</v>
+        <v>4.59</v>
       </c>
       <c r="C512" t="n">
-        <v>0.394</v>
+        <v>2.975</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>BBG000047X82</t>
+          <t>BBG0178JRTF4</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>7.331</v>
+        <v>4.608</v>
       </c>
       <c r="C513" t="n">
-        <v>0.218</v>
+        <v>5.631</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>BBG01KWPWXN0</t>
+          <t>BBG01T2RPXN8</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>4.59</v>
+        <v>4.497</v>
       </c>
       <c r="C514" t="n">
-        <v>2.975</v>
+        <v>3.951</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>BBG0178JRTF4</t>
+          <t>BBG006R54KG9</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>4.608</v>
+        <v>5.089</v>
       </c>
       <c r="C515" t="n">
-        <v>5.631</v>
+        <v>7.206</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>BBG01T2RPXN8</t>
+          <t>BBG00P7D5SF5</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>4.497</v>
+        <v>4.835</v>
       </c>
       <c r="C516" t="n">
-        <v>3.951</v>
+        <v>3.442</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>BBG006R54KG9</t>
+          <t>BBG00QTYLNR3</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>5.089</v>
+        <v>5.203</v>
       </c>
       <c r="C517" t="n">
-        <v>7.206</v>
+        <v>2.067</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>BBG00P7D5SF5</t>
+          <t>BBG018WMWRL9</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>4.835</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>3.442</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>BBG00QTYLNR3</t>
+          <t>BBG01QB5DK99</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>5.203</v>
+        <v>4.994</v>
       </c>
       <c r="C519" t="n">
-        <v>2.067</v>
+        <v>1.133</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>BBG018WMWRL9</t>
+          <t>BBG01QB5DK17</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>3</v>
+        <v>5.805</v>
       </c>
       <c r="C520" t="n">
-        <v>0.949</v>
+        <v>6.992</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>BBG01QB5DK99</t>
+          <t>BBG01QG51YG9</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>4.994</v>
+        <v>5.506</v>
       </c>
       <c r="C521" t="n">
-        <v>1.133</v>
+        <v>7.081</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>BBG01QB5DK17</t>
+          <t>BBG01Q1TYKQ6</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>5.805</v>
+        <v>4.311</v>
       </c>
       <c r="C522" t="n">
-        <v>6.992</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>BBG01QG51YG9</t>
+          <t>BBG00PD41K14</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>5.506</v>
+        <v>5.078</v>
       </c>
       <c r="C523" t="n">
-        <v>7.081</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>BBG01Q1TYKQ6</t>
+          <t>BBG01QHNN621</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>4.311</v>
+        <v>4.206</v>
       </c>
       <c r="C524" t="n">
-        <v>0.117</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>BBG00PD41K14</t>
+          <t>BBG01PNYH7L6</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>5.078</v>
+        <v>5.578</v>
       </c>
       <c r="C525" t="n">
-        <v>1.826</v>
+        <v>1.885</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>BBG01QHNN621</t>
+          <t>BBG01BG1V9Z2</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>4.206</v>
+        <v>5.954</v>
       </c>
       <c r="C526" t="n">
-        <v>0.193</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>BBG01PNYH7L6</t>
+          <t>BBG00F5RQC97</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>5.578</v>
+        <v>3.881</v>
       </c>
       <c r="C527" t="n">
-        <v>1.885</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>BBG01BG1V9Z2</t>
+          <t>BBG0134TVM29</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>5.954</v>
+        <v>3.907</v>
       </c>
       <c r="C528" t="n">
-        <v>0.233</v>
+        <v>1.164</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>BBG00F5RQC97</t>
+          <t>BBG00NW1Y156</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>3.881</v>
+        <v>5.682</v>
       </c>
       <c r="C529" t="n">
-        <v>1.198</v>
+        <v>1.572</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>BBG0134TVM29</t>
+          <t>BBG011B7SKP6</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>3.907</v>
+        <v>5.338</v>
       </c>
       <c r="C530" t="n">
-        <v>1.164</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>BBG00NW1Y156</t>
+          <t>BBG00Z47VWJ7</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>5.682</v>
+        <v>5.693</v>
       </c>
       <c r="C531" t="n">
-        <v>1.572</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>BBG011B7SKP6</t>
+          <t>BBG01QXV8JS6</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>5.338</v>
+        <v>5.259</v>
       </c>
       <c r="C532" t="n">
-        <v>0.154</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>BBG00Z47VWJ7</t>
+          <t>BBG0131XXDL0</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>5.693</v>
+        <v>5.288</v>
       </c>
       <c r="C533" t="n">
-        <v>0.448</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>BBG01QXV8JS6</t>
+          <t>BBG00XC9CT16</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>5.259</v>
+        <v>5.12</v>
       </c>
       <c r="C534" t="n">
-        <v>0.003</v>
+        <v>2.751</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>BBG0131XXDL0</t>
+          <t>BBG01R3XTG97</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>5.288</v>
+        <v>4.868</v>
       </c>
       <c r="C535" t="n">
-        <v>0.438</v>
+        <v>3.695</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>BBG00XC9CT16</t>
+          <t>BBG01QZFYGH8</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>5.12</v>
+        <v>4.179</v>
       </c>
       <c r="C536" t="n">
-        <v>2.751</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>BBG01R3XTG97</t>
+          <t>BBG01QZFYD58</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>4.868</v>
+        <v>3.792</v>
       </c>
       <c r="C537" t="n">
-        <v>3.695</v>
+        <v>3.861</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>BBG01QZFYGH8</t>
+          <t>BBG01RF3D3T4</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>4.179</v>
+        <v>4.115</v>
       </c>
       <c r="C538" t="n">
-        <v>0.271</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>BBG01QZFYD58</t>
+          <t>BBG00005R711</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>3.792</v>
+        <v>4.445</v>
       </c>
       <c r="C539" t="n">
-        <v>3.861</v>
+        <v>2.329</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>BBG01RF3D3T4</t>
+          <t>BBG001YF6PS4</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>4.115</v>
+        <v>6.191</v>
       </c>
       <c r="C540" t="n">
-        <v>0.346</v>
+        <v>9.771000000000001</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>BBG00005R711</t>
+          <t>BBG002N8R5L8</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>4.445</v>
+        <v>4.224</v>
       </c>
       <c r="C541" t="n">
-        <v>2.329</v>
+        <v>5.509</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>BBG001YF6PS4</t>
+          <t>BBG00YS3Y527</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>6.191</v>
+        <v>4.4</v>
       </c>
       <c r="C542" t="n">
-        <v>9.771000000000001</v>
+        <v>5.038</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>BBG002N8R5L8</t>
+          <t>BBG00ZHCFNY3</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>4.224</v>
+        <v>4.189</v>
       </c>
       <c r="C543" t="n">
-        <v>5.509</v>
+        <v>5.094</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>BBG00YS3Y527</t>
+          <t>BBG01H6WSCT6</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>4.4</v>
+        <v>5.927</v>
       </c>
       <c r="C544" t="n">
-        <v>5.038</v>
+        <v>5.934</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>BBG00ZHCFNY3</t>
+          <t>BBG000068KS2</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>4.189</v>
+        <v>7.273</v>
       </c>
       <c r="C545" t="n">
-        <v>5.094</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>BBG01H6WSCT6</t>
+          <t>BBG01RR8DS51</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>5.927</v>
+        <v>5.186</v>
       </c>
       <c r="C546" t="n">
-        <v>5.934</v>
+        <v>3.812</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>BBG000068KS2</t>
+          <t>BBG01KJCQ7H5</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>7.273</v>
+        <v>4.328</v>
       </c>
       <c r="C547" t="n">
-        <v>0.07099999999999999</v>
+        <v>2.996</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>BBG01RR8DS51</t>
+          <t>BBG00PT7KLS8</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>5.186</v>
+        <v>4.417</v>
       </c>
       <c r="C548" t="n">
-        <v>3.812</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>BBG01KJCQ7H5</t>
+          <t>BBG016LSH118</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>4.328</v>
+        <v>5.744</v>
       </c>
       <c r="C549" t="n">
-        <v>2.996</v>
+        <v>5.147</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>BBG00PT7KLS8</t>
+          <t>BBG01RXV9095</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>4.417</v>
+        <v>7.071</v>
       </c>
       <c r="C550" t="n">
-        <v>3.65</v>
+        <v>3.697</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>BBG016LSH118</t>
+          <t>BBG00HYY8C87</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>5.744</v>
+        <v>4.457</v>
       </c>
       <c r="C551" t="n">
-        <v>5.147</v>
+        <v>2.017</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>BBG01RXV9095</t>
+          <t>BBG01RPWMFK1</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>7.071</v>
+        <v>5.202</v>
       </c>
       <c r="C552" t="n">
-        <v>3.697</v>
+        <v>3.935</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>BBG00HYY8C87</t>
+          <t>BBG01RP52FZ6</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>4.457</v>
+        <v>5.424</v>
       </c>
       <c r="C553" t="n">
-        <v>2.017</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>BBG01RPWMFK1</t>
+          <t>BBG00W1NXWS0</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>5.202</v>
+        <v>5.427</v>
       </c>
       <c r="C554" t="n">
-        <v>3.935</v>
+        <v>4.239</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>BBG01RP52FZ6</t>
+          <t>BBG00TNTZNY1</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>5.424</v>
+        <v>4.511</v>
       </c>
       <c r="C555" t="n">
-        <v>3.636</v>
+        <v>4.989</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>BBG00W1NXWS0</t>
+          <t>BBG01RV9W4F5</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>5.427</v>
+        <v>4.072</v>
       </c>
       <c r="C556" t="n">
-        <v>4.239</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>BBG00TNTZNY1</t>
+          <t>BBG01RQTR2D9</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>4.511</v>
+        <v>4.242</v>
       </c>
       <c r="C557" t="n">
-        <v>4.989</v>
+        <v>3.931</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>BBG01RV9W4F5</t>
+          <t>BBG01LTXKLM5</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>4.072</v>
+        <v>4.362</v>
       </c>
       <c r="C558" t="n">
-        <v>0.417</v>
+        <v>3.154</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>BBG01RQTR2D9</t>
+          <t>BBG01RV6JPZ7</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>4.242</v>
+        <v>5.085</v>
       </c>
       <c r="C559" t="n">
-        <v>3.931</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>BBG01LTXKLM5</t>
+          <t>BBG01RVZTJK2</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>4.362</v>
+        <v>5.085</v>
       </c>
       <c r="C560" t="n">
-        <v>3.154</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>BBG01RV6JPZ7</t>
+          <t>BBG00DHT6887</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>5.085</v>
+        <v>4.912</v>
       </c>
       <c r="C561" t="n">
-        <v>0.003</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>BBG01RVZTJK2</t>
+          <t>BBG00Q6B3T31</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>5.085</v>
+        <v>5.138</v>
       </c>
       <c r="C562" t="n">
-        <v>0.003</v>
+        <v>1.912</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>BBG00DHT6887</t>
+          <t>BBG012YGTVG4</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>4.912</v>
+        <v>4.863</v>
       </c>
       <c r="C563" t="n">
-        <v>0.922</v>
+        <v>2.956</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>BBG00Q6B3T31</t>
+          <t>BBG01RXRZ969</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>5.138</v>
+        <v>4.929</v>
       </c>
       <c r="C564" t="n">
-        <v>1.912</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>BBG012YGTVG4</t>
+          <t>BBG01S53T815</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>4.863</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>2.956</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>BBG01RXRZ969</t>
+          <t>BBG01NK90PX4</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>4.929</v>
+        <v>6.009</v>
       </c>
       <c r="C566" t="n">
-        <v>0.003</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>BBG01S53T815</t>
+          <t>BBG01QKHSMP5</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>3</v>
+        <v>4.255</v>
       </c>
       <c r="C567" t="n">
-        <v>0.485</v>
+        <v>7.491</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>BBG01NK90PX4</t>
+          <t>BBG011Y7VTR6</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>6.009</v>
+        <v>5.629</v>
       </c>
       <c r="C568" t="n">
-        <v>3.28</v>
+        <v>2.734</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>BBG01QKHSMP5</t>
+          <t>BBG01HQK91T5</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>4.255</v>
+        <v>5.462</v>
       </c>
       <c r="C569" t="n">
-        <v>7.491</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>BBG011Y7VTR6</t>
+          <t>BBG00RDH2SQ6</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>5.629</v>
+        <v>4.786</v>
       </c>
       <c r="C570" t="n">
-        <v>2.734</v>
+        <v>3.634</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>BBG01HQK91T5</t>
+          <t>BBG00RN2M5B2</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>5.462</v>
+        <v>3.785</v>
       </c>
       <c r="C571" t="n">
-        <v>0.947</v>
+        <v>4.266</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>BBG00RDH2SQ6</t>
+          <t>BBG000FSC999</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>4.786</v>
+        <v>4.648</v>
       </c>
       <c r="C572" t="n">
-        <v>3.634</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>BBG00RN2M5B2</t>
+          <t>BBG01F5V0FC4</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>3.785</v>
+        <v>15.367</v>
       </c>
       <c r="C573" t="n">
-        <v>4.266</v>
+        <v>5.047</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>BBG000FSC999</t>
+          <t>BBG0000BQRS6</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>4.648</v>
+        <v>4.582</v>
       </c>
       <c r="C574" t="n">
-        <v>10.46</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>BBG01F5V0FC4</t>
+          <t>BBG000047KV4</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>15.367</v>
+        <v>44.319</v>
       </c>
       <c r="C575" t="n">
-        <v>5.047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>BBG0000BQRS6</t>
+          <t>BBG01JLH8JY9</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>4.582</v>
+        <v>7.932</v>
       </c>
       <c r="C576" t="n">
-        <v>0.433</v>
+        <v>5.197</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>BBG000047KV4</t>
+          <t>BBG00GXJCQB3</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>44.319</v>
+        <v>4.704</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1.481</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>BBG01JLH8JY9</t>
+          <t>BBG00ZMFQKV7</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>7.932</v>
+        <v>4.417</v>
       </c>
       <c r="C578" t="n">
-        <v>5.197</v>
+        <v>2.416</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>BBG00GXJCQB3</t>
+          <t>BBG01SBDZRQ0</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>4.704</v>
+        <v>4.238</v>
       </c>
       <c r="C579" t="n">
-        <v>1.481</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>BBG00ZMFQKV7</t>
+          <t>BBG00VZR5Z55</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>4.417</v>
+        <v>5.353</v>
       </c>
       <c r="C580" t="n">
-        <v>2.416</v>
+        <v>1.793</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>BBG01SBDZRQ0</t>
+          <t>BBG01PNNP3T2</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>4.238</v>
+        <v>7.75</v>
       </c>
       <c r="C581" t="n">
-        <v>0.022</v>
+        <v>3.514</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>BBG00VZR5Z55</t>
+          <t>BBG01KY1MDH3</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>5.353</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="C582" t="n">
-        <v>1.793</v>
+        <v>6.721</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>BBG01PNNP3T2</t>
+          <t>BBG01QK8Q262</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>7.75</v>
+        <v>4.122</v>
       </c>
       <c r="C583" t="n">
-        <v>3.514</v>
+        <v>1.998</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>BBG01KY1MDH3</t>
+          <t>BBG01SMJVJ05</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>8.276999999999999</v>
+        <v>4.311</v>
       </c>
       <c r="C584" t="n">
-        <v>6.721</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>BBG01QK8Q262</t>
+          <t>BBG01JH09PK1</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>4.122</v>
+        <v>3.724</v>
       </c>
       <c r="C585" t="n">
-        <v>1.998</v>
+        <v>2.835</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>BBG01SMJVJ05</t>
+          <t>BBG00G2BVGX1</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>4.311</v>
+        <v>6.902</v>
       </c>
       <c r="C586" t="n">
-        <v>0.06</v>
+        <v>2.906</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>BBG01JH09PK1</t>
+          <t>BBG011Q3WB83</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>3.724</v>
+        <v>4.685</v>
       </c>
       <c r="C587" t="n">
-        <v>2.835</v>
+        <v>5.348</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>BBG00G2BVGX1</t>
+          <t>BBG019SQ9ZW9</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>6.902</v>
+        <v>6.95</v>
       </c>
       <c r="C588" t="n">
-        <v>2.906</v>
+        <v>2.727</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>BBG011Q3WB83</t>
+          <t>BBG010423K56</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>4.685</v>
+        <v>6.59</v>
       </c>
       <c r="C589" t="n">
-        <v>5.348</v>
+        <v>3.176</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>BBG019SQ9ZW9</t>
+          <t>BBG01GNYCG86</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>6.95</v>
+        <v>5.001</v>
       </c>
       <c r="C590" t="n">
-        <v>2.727</v>
+        <v>5.936</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>BBG010423K56</t>
+          <t>BBG00XDH7864</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>6.59</v>
+        <v>5.772</v>
       </c>
       <c r="C591" t="n">
-        <v>3.176</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>BBG01GNYCG86</t>
+          <t>BBG01FC87YK0</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>5.001</v>
+        <v>3.796</v>
       </c>
       <c r="C592" t="n">
-        <v>5.936</v>
+        <v>4.037</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>BBG00XDH7864</t>
+          <t>BBG01T1YK8Y2</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>5.772</v>
+        <v>4.607</v>
       </c>
       <c r="C593" t="n">
-        <v>0.314</v>
+        <v>3.933</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>BBG01FC87YK0</t>
+          <t>BBG0180YYG94</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>3.796</v>
+        <v>4.867</v>
       </c>
       <c r="C594" t="n">
-        <v>4.037</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>BBG01T1YK8Y2</t>
+          <t>BBG01GF4KYZ3</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>4.607</v>
+        <v>8.569000000000001</v>
       </c>
       <c r="C595" t="n">
-        <v>3.933</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>BBG0180YYG94</t>
+          <t>BBG00MFJPBK9</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>4.867</v>
+        <v>3.731</v>
       </c>
       <c r="C596" t="n">
-        <v>5.5</v>
+        <v>3.021</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>BBG01GF4KYZ3</t>
+          <t>BBG01MT1FKJ5</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>8.569000000000001</v>
+        <v>5.007</v>
       </c>
       <c r="C597" t="n">
-        <v>2.916</v>
+        <v>28.035</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>BBG00MFJPBK9</t>
+          <t>BBG01M3FYM52</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>3.731</v>
+        <v>7.497</v>
       </c>
       <c r="C598" t="n">
-        <v>3.021</v>
+        <v>3.001</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>BBG01MT1FKJ5</t>
+          <t>BBG013XYL5L3</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>5.007</v>
+        <v>7.075</v>
       </c>
       <c r="C599" t="n">
-        <v>28.035</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>BBG01M3FYM52</t>
+          <t>BBG01P1YBJQ5</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>7.497</v>
+        <v>4.232</v>
       </c>
       <c r="C600" t="n">
-        <v>3.001</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>BBG013XYL5L3</t>
+          <t>BBG00DJ1B7D6</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>7.075</v>
+        <v>4.628</v>
       </c>
       <c r="C601" t="n">
-        <v>0.312</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>BBG01P1YBJQ5</t>
+          <t>BBG008LS4VN9</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>4.232</v>
+        <v>5.215</v>
       </c>
       <c r="C602" t="n">
-        <v>7.49</v>
+        <v>7.799</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>BBG00DJ1B7D6</t>
+          <t>BBG00VY21L38</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>4.628</v>
+        <v>4.22</v>
       </c>
       <c r="C603" t="n">
-        <v>8.890000000000001</v>
+        <v>2.805</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>BBG008LS4VN9</t>
+          <t>BBG01T5XYS99</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>5.215</v>
+        <v>4.992</v>
       </c>
       <c r="C604" t="n">
-        <v>7.799</v>
+        <v>2.368</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>BBG00VY21L38</t>
+          <t>BBG012J07MN2</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>4.22</v>
+        <v>5.002</v>
       </c>
       <c r="C605" t="n">
-        <v>2.805</v>
+        <v>5.509</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>BBG01T5XYS99</t>
+          <t>BBG01T4PDX53</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>4.992</v>
+        <v>4.256</v>
       </c>
       <c r="C606" t="n">
-        <v>2.368</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>BBG012J07MN2</t>
+          <t>BBG01PJH4PJ5</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>5.002</v>
+        <v>4.293</v>
       </c>
       <c r="C607" t="n">
-        <v>5.509</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>BBG01T4PDX53</t>
+          <t>BBG00Y6T4340</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>4.256</v>
+        <v>4.274</v>
       </c>
       <c r="C608" t="n">
-        <v>0.136</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>BBG01PJH4PJ5</t>
+          <t>BBG01SW0B5W2</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>4.293</v>
+        <v>3.81</v>
       </c>
       <c r="C609" t="n">
-        <v>0.041</v>
+        <v>4.117</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>BBG00Y6T4340</t>
+          <t>BBG01RYZYM80</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>4.274</v>
+        <v>3.803</v>
       </c>
       <c r="C610" t="n">
-        <v>0.482</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>BBG01SW0B5W2</t>
+          <t>BBG00RT7H8J7</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>3.81</v>
+        <v>4.707</v>
       </c>
       <c r="C611" t="n">
-        <v>4.117</v>
+        <v>3.988</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>BBG01RYZYM80</t>
+          <t>BBG00VSF0P29</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>3.803</v>
+        <v>4.488</v>
       </c>
       <c r="C612" t="n">
-        <v>4.016</v>
+        <v>4.535</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>BBG00RT7H8J7</t>
+          <t>BBG00HBFK9Z6</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>4.707</v>
+        <v>5.003</v>
       </c>
       <c r="C613" t="n">
-        <v>3.988</v>
+        <v>1.843</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>BBG00VSF0P29</t>
+          <t>BBG00ZKWS2J4</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>4.488</v>
+        <v>4.987</v>
       </c>
       <c r="C614" t="n">
-        <v>4.535</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>BBG00HBFK9Z6</t>
+          <t>BBG0132LMV00</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>5.003</v>
+        <v>4.612</v>
       </c>
       <c r="C615" t="n">
-        <v>1.843</v>
+        <v>2.955</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>BBG00ZKWS2J4</t>
+          <t>BBG015QF67C0</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>4.987</v>
+        <v>4.629</v>
       </c>
       <c r="C616" t="n">
-        <v>0.542</v>
+        <v>5.746</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>BBG0132LMV00</t>
+          <t>BBG01T8LCHN4</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>4.612</v>
+        <v>3.928</v>
       </c>
       <c r="C617" t="n">
-        <v>2.955</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>BBG015QF67C0</t>
+          <t>BBG00XNP9701</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>4.629</v>
+        <v>4.965</v>
       </c>
       <c r="C618" t="n">
-        <v>5.746</v>
+        <v>4.505</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>BBG01T8LCHN4</t>
+          <t>BBG0192W27G1</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>3.928</v>
+        <v>5.118</v>
       </c>
       <c r="C619" t="n">
-        <v>0.644</v>
+        <v>5.775</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>BBG00XNP9701</t>
+          <t>BBG01NG25L95</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>4.965</v>
+        <v>3.77</v>
       </c>
       <c r="C620" t="n">
-        <v>4.505</v>
+        <v>3.519</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>BBG0192W27G1</t>
+          <t>BBG00XGCTQJ4</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>5.118</v>
+        <v>5.887</v>
       </c>
       <c r="C621" t="n">
-        <v>5.775</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>BBG01NG25L95</t>
+          <t>BBG01T8LCHP2</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>3.77</v>
+        <v>4.23</v>
       </c>
       <c r="C622" t="n">
-        <v>3.519</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>BBG00XGCTQJ4</t>
+          <t>BBG00WYXCK74</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>5.887</v>
+        <v>4.813</v>
       </c>
       <c r="C623" t="n">
-        <v>5.75</v>
+        <v>6.351</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>BBG01T8LCHP2</t>
+          <t>BBG010SWJ5N0</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>4.23</v>
+        <v>3.917</v>
       </c>
       <c r="C624" t="n">
-        <v>0.155</v>
+        <v>5.351</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>BBG00WYXCK74</t>
+          <t>BBG00NR784G0</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>4.813</v>
+        <v>5.858</v>
       </c>
       <c r="C625" t="n">
-        <v>6.351</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>BBG010SWJ5N0</t>
+          <t>BBG01SGH86Q2</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>3.917</v>
+        <v>5.204</v>
       </c>
       <c r="C626" t="n">
-        <v>5.351</v>
+        <v>3.763</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>BBG00NR784G0</t>
+          <t>BBG01S51CWB3</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>5.858</v>
+        <v>4.183</v>
       </c>
       <c r="C627" t="n">
-        <v>0.025</v>
+        <v>3.996</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>BBG01SGH86Q2</t>
+          <t>BBG00CW2H790</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>5.204</v>
+        <v>5.408</v>
       </c>
       <c r="C628" t="n">
-        <v>3.763</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>BBG01S51CWB3</t>
+          <t>BBG004H68H21</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>4.183</v>
+        <v>6.453</v>
       </c>
       <c r="C629" t="n">
-        <v>3.996</v>
+        <v>10.569</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>BBG00CW2H790</t>
+          <t>BBG01TS36H04</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>5.408</v>
+        <v>5.553</v>
       </c>
       <c r="C630" t="n">
-        <v>0.694</v>
+        <v>5.261</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>BBG004H68H21</t>
+          <t>BBG01TS3JJ60</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>6.453</v>
+        <v>5.266</v>
       </c>
       <c r="C631" t="n">
-        <v>10.569</v>
+        <v>3.959</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>BBG01TS36H04</t>
+          <t>BBG01TG14R10</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>5.553</v>
+        <v>4.017</v>
       </c>
       <c r="C632" t="n">
-        <v>5.261</v>
+        <v>5.754</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>BBG01TS3JJ60</t>
+          <t>BBG01TVSK4Q0</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>5.266</v>
+        <v>5.355</v>
       </c>
       <c r="C633" t="n">
-        <v>3.959</v>
+        <v>5.276</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>BBG01TG14R10</t>
+          <t>BBG01TVSY1R0</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>4.017</v>
+        <v>6.386</v>
       </c>
       <c r="C634" t="n">
-        <v>5.754</v>
+        <v>3.795</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>BBG01TVSK4Q0</t>
+          <t>BBG019VV34M0</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>5.355</v>
+        <v>4.29</v>
       </c>
       <c r="C635" t="n">
-        <v>5.276</v>
+        <v>2.387</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>BBG01TVSY1R0</t>
+          <t>BBG019VV34G7</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>6.386</v>
+        <v>4.324</v>
       </c>
       <c r="C636" t="n">
-        <v>3.795</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>BBG019VV34M0</t>
+          <t>BBG00M910K68</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>4.29</v>
+        <v>11.725</v>
       </c>
       <c r="C637" t="n">
-        <v>2.387</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>BBG019VV34G7</t>
+          <t>BBG00V7RHPP3</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>4.324</v>
+        <v>4.987</v>
       </c>
       <c r="C638" t="n">
-        <v>0.602</v>
+        <v>4.285</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>BBG00M910K68</t>
+          <t>BBG01TTN60H8</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>11.725</v>
+        <v>4.217</v>
       </c>
       <c r="C639" t="n">
-        <v>2.71</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>BBG00V7RHPP3</t>
+          <t>BBG01TTN60G9</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>4.987</v>
+        <v>4.312</v>
       </c>
       <c r="C640" t="n">
-        <v>4.285</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>BBG01TTN60H8</t>
+          <t>BBG018FYVSD0</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>4.217</v>
+        <v>3.762</v>
       </c>
       <c r="C641" t="n">
-        <v>0.231</v>
+        <v>3.575</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>BBG01TTN60G9</t>
+          <t>BBG01JX4HJC9</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>4.312</v>
+        <v>5.506</v>
       </c>
       <c r="C642" t="n">
-        <v>0.055</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>BBG018FYVSD0</t>
+          <t>BBG00ZQT8CJ5</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>3.762</v>
+        <v>5.615</v>
       </c>
       <c r="C643" t="n">
-        <v>3.575</v>
+        <v>4.795</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BBG01JX4HJC9</t>
+          <t>BBG019XCV6X2</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>5.506</v>
+        <v>4.564</v>
       </c>
       <c r="C644" t="n">
-        <v>0.193</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>BBG00ZQT8CJ5</t>
+          <t>BBG00THX2SL8</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>5.615</v>
+        <v>4.577</v>
       </c>
       <c r="C645" t="n">
-        <v>4.795</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>BBG019XCV6X2</t>
+          <t>BBG01KZJ6VK7</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>4.564</v>
+        <v>4.852</v>
       </c>
       <c r="C646" t="n">
-        <v>1.95</v>
+        <v>3.073</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>BBG00THX2SL8</t>
+          <t>BBG01TXYTZR6</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>4.577</v>
+        <v>4.204</v>
       </c>
       <c r="C647" t="n">
-        <v>0.111</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BBG01KZJ6VK7</t>
+          <t>BBG00XKLXL14</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>4.852</v>
+        <v>7.526</v>
       </c>
       <c r="C648" t="n">
-        <v>3.073</v>
+        <v>4.507</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BBG01TXYTZR6</t>
+          <t>BBG01TMGD135</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>4.204</v>
+        <v>4.261</v>
       </c>
       <c r="C649" t="n">
-        <v>0.249</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>BBG00XKLXL14</t>
+          <t>BBG01K1ZFQQ3</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>7.526</v>
+        <v>4.258</v>
       </c>
       <c r="C650" t="n">
-        <v>4.507</v>
+        <v>4.355</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>BBG01TMGD135</t>
+          <t>BBG00PQFMFZ6</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>4.261</v>
+        <v>5.017</v>
       </c>
       <c r="C651" t="n">
-        <v>0.016</v>
+        <v>4.041</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>BBG01K1ZFQQ3</t>
+          <t>BBG00XGD0FJ7</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>4.258</v>
+        <v>4.31</v>
       </c>
       <c r="C652" t="n">
-        <v>4.355</v>
+        <v>2.331</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>BBG00PQFMFZ6</t>
+          <t>BBG00HYZBB00</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>5.017</v>
+        <v>4.707</v>
       </c>
       <c r="C653" t="n">
-        <v>4.041</v>
+        <v>2.017</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>BBG00XGD0FJ7</t>
+          <t>BBG01V306M83</t>
         </is>
       </c>
       <c r="B654" t="n">
         <v>4.31</v>
       </c>
       <c r="C654" t="n">
-        <v>2.331</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>BBG00HYZBB00</t>
+          <t>BBG01V8FB5T3</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>4.707</v>
+        <v>8.138</v>
       </c>
       <c r="C655" t="n">
-        <v>2.017</v>
+        <v>3.854</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>BBG01V306M83</t>
+          <t>BBG01S6Z6VH0</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>4.31</v>
+        <v>4.213</v>
       </c>
       <c r="C656" t="n">
-        <v>0.093</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>BBG01V8FB5T3</t>
+          <t>BBG01V306M56</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>8.138</v>
+        <v>3.812</v>
       </c>
       <c r="C657" t="n">
-        <v>3.854</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>BBG01S6Z6VH0</t>
+          <t>BBG01V7GYTJ6</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>4.213</v>
+        <v>4.17</v>
       </c>
       <c r="C658" t="n">
-        <v>0.003</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>BBG01V306M56</t>
+          <t>BBG01L10KBD9</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>3.812</v>
+        <v>4.277</v>
       </c>
       <c r="C659" t="n">
-        <v>4.28</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>BBG01V7GYTJ6</t>
+          <t>BBG01RRM6665</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>4.17</v>
+        <v>4.1</v>
       </c>
       <c r="C660" t="n">
-        <v>0.287</v>
+        <v>2.269</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>BBG01L10KBD9</t>
+          <t>BBG01VBK92P2</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>4.277</v>
+        <v>3.908</v>
       </c>
       <c r="C661" t="n">
-        <v>1.365</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>BBG01RRM6665</t>
+          <t>BBG01TXYTZS5</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>4.1</v>
+        <v>4.342</v>
       </c>
       <c r="C662" t="n">
-        <v>2.269</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>BBG01VBK92P2</t>
+          <t>BBG01TYK5MW4</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>3.908</v>
+        <v>5.674</v>
       </c>
       <c r="C663" t="n">
-        <v>0.795</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>BBG01TXYTZS5</t>
+          <t>BBG01VH5YR85</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>4.342</v>
+        <v>5.474</v>
       </c>
       <c r="C664" t="n">
-        <v>0.074</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>BBG01TYK5MW4</t>
+          <t>BBG01VR04YS1</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>5.674</v>
+        <v>5.476</v>
       </c>
       <c r="C665" t="n">
-        <v>0.709</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>BBG01VH5YR85</t>
+          <t>BBG01VT5QV82</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>5.474</v>
+        <v>6.787</v>
       </c>
       <c r="C666" t="n">
-        <v>0.782</v>
+        <v>3.305</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>BBG01VR04YS1</t>
+          <t>BBG01HTKCM21</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>5.476</v>
+        <v>8.348000000000001</v>
       </c>
       <c r="C667" t="n">
-        <v>5.46</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>BBG01VT5QV82</t>
+          <t>BBG01V7GYTM2</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>6.787</v>
+        <v>4.311</v>
       </c>
       <c r="C668" t="n">
-        <v>3.305</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>BBG01HTKCM21</t>
+          <t>BBG01NK9DR75</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>8.348000000000001</v>
+        <v>6.317</v>
       </c>
       <c r="C669" t="n">
-        <v>0.078</v>
+        <v>5.382</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>BBG01V7GYTM2</t>
+          <t>BBG01S67JVG9</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>4.311</v>
+        <v>5.712</v>
       </c>
       <c r="C670" t="n">
-        <v>0.112</v>
+        <v>4.754</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>BBG01NK9DR75</t>
+          <t>BBG01Q89JZW0</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>6.317</v>
+        <v>5.894</v>
       </c>
       <c r="C671" t="n">
-        <v>5.382</v>
+        <v>3.784</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>BBG01S67JVG9</t>
+          <t>BBG01HHN6XZ5</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>5.712</v>
+        <v>6.246</v>
       </c>
       <c r="C672" t="n">
-        <v>4.754</v>
+        <v>5.938</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>BBG01Q89JZW0</t>
+          <t>BBG01JFK4P33</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>5.894</v>
+        <v>7.491</v>
       </c>
       <c r="C673" t="n">
-        <v>3.784</v>
+        <v>2.749</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>BBG01HHN6XZ5</t>
+          <t>BBG01J6K6L30</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>6.246</v>
+        <v>7.212</v>
       </c>
       <c r="C674" t="n">
-        <v>5.938</v>
+        <v>2.593</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>BBG01JFK4P33</t>
+          <t>BBG01VG6D5F7</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>7.491</v>
+        <v>7.059</v>
       </c>
       <c r="C675" t="n">
-        <v>2.749</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>BBG01J6K6L30</t>
+          <t>BBG00Z5HYQB2</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>7.212</v>
+        <v>7.486</v>
       </c>
       <c r="C676" t="n">
-        <v>2.593</v>
+        <v>4.695</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>BBG01VG6D5F7</t>
+          <t>BBG01QYDHPX5</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>7.059</v>
+        <v>4.883</v>
       </c>
       <c r="C677" t="n">
-        <v>5.044</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>BBG00Z5HYQB2</t>
+          <t>BBG01VKC4GK9</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>7.486</v>
+        <v>3.825</v>
       </c>
       <c r="C678" t="n">
-        <v>4.695</v>
+        <v>4.372</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>BBG01QYDHPX5</t>
+          <t>BBG01L0NNVT6</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>4.883</v>
+        <v>4.159</v>
       </c>
       <c r="C679" t="n">
-        <v>5.12</v>
+        <v>3.121</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>BBG01VKC4GK9</t>
+          <t>BBG00003XNY8</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>3.825</v>
+        <v>4.691</v>
       </c>
       <c r="C680" t="n">
-        <v>4.372</v>
+        <v>1.361</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>BBG01L0NNVT6</t>
+          <t>BBG015PYL5L7</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>4.159</v>
+        <v>6.012</v>
       </c>
       <c r="C681" t="n">
-        <v>3.121</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>BBG00003XNY8</t>
+          <t>BBG01W13JJL5</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>4.691</v>
+        <v>7.884</v>
       </c>
       <c r="C682" t="n">
-        <v>1.361</v>
+        <v>3.942</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>BBG00000L139</t>
+          <t>BBG00P8T66C9</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>5.185</v>
+        <v>5.07</v>
       </c>
       <c r="C683" t="n">
-        <v>3.007</v>
+        <v>3.358</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>BBG015PYL5L7</t>
+          <t>BBG01VV08ZX3</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>6.012</v>
+        <v>4.074</v>
       </c>
       <c r="C684" t="n">
-        <v>0.077</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>BBG01W13JJL5</t>
+          <t>BBG01VXS1ZJ3</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>7.884</v>
+        <v>4.075</v>
       </c>
       <c r="C685" t="n">
-        <v>3.942</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>BBG00P8T66C9</t>
+          <t>BBG01VV08ZZ1</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>5.07</v>
+        <v>3.916</v>
       </c>
       <c r="C686" t="n">
-        <v>3.358</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>BBG01VV08ZX3</t>
+          <t>BBG01VV08ZW4</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>4.074</v>
+        <v>3.715</v>
       </c>
       <c r="C687" t="n">
-        <v>0.38</v>
+        <v>2.713</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>BBG01VXS1ZJ3</t>
+          <t>BBG019JB0986</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>4.075</v>
+        <v>5.862</v>
       </c>
       <c r="C688" t="n">
-        <v>0.399</v>
+        <v>5.344</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>BBG01VV08ZZ1</t>
+          <t>BBG00PG1HZX2</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>3.916</v>
+        <v>5.334</v>
       </c>
       <c r="C689" t="n">
-        <v>0.87</v>
+        <v>3.424</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>BBG01VV08ZW4</t>
+          <t>BBG01FNVYP35</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>3.715</v>
+        <v>5.469</v>
       </c>
       <c r="C690" t="n">
-        <v>2.713</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>BBG019JB0986</t>
+          <t>BBG01P7QC7X3</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>5.862</v>
+        <v>0.9</v>
       </c>
       <c r="C691" t="n">
-        <v>5.344</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>BBG00PG1HZX2</t>
+          <t>BBG00PT7GB32</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>5.334</v>
+        <v>5.135</v>
       </c>
       <c r="C692" t="n">
-        <v>3.424</v>
+        <v>3.629</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>BBG01FNVYP35</t>
+          <t>BBG01W7BW7N0</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>5.469</v>
+        <v>4.08</v>
       </c>
       <c r="C693" t="n">
-        <v>4.56</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>BBG01P7QC7X3</t>
+          <t>BBG01WJCKC02</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0.9</v>
+        <v>4.342</v>
       </c>
       <c r="C694" t="n">
-        <v>0.003</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>BBG00PT7GB32</t>
+          <t>BBG01HQ3H0D3</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>5.135</v>
+        <v>6.039</v>
       </c>
       <c r="C695" t="n">
-        <v>3.629</v>
+        <v>10.328</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>BBG01W7BW7N0</t>
+          <t>BBG01WH843G4</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>4.08</v>
+        <v>4.165</v>
       </c>
       <c r="C696" t="n">
-        <v>0.436</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>BBG01WJCKC02</t>
+          <t>BBG00007BF34</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>4.342</v>
+        <v>5.08</v>
       </c>
       <c r="C697" t="n">
-        <v>0.466</v>
+        <v>5.896</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>BBG01HQ3H0D3</t>
+          <t>BBG00000L4N1</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>6.039</v>
+        <v>5.889</v>
       </c>
       <c r="C698" t="n">
-        <v>10.328</v>
+        <v>6.183</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>BBG01WH843G4</t>
+          <t>BBG00FGQXY82</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>4.165</v>
+        <v>4.77</v>
       </c>
       <c r="C699" t="n">
-        <v>0.3</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>BBG00007BF34</t>
+          <t>BBG00001K5F6</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>5.08</v>
+        <v>2.416</v>
       </c>
       <c r="C700" t="n">
-        <v>5.896</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>BBG00000L4N1</t>
+          <t>BBG00HC3QXH3</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>5.889</v>
+        <v>3.745</v>
       </c>
       <c r="C701" t="n">
-        <v>6.183</v>
+        <v>1.917</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>BBG00FGQXY82</t>
+          <t>BBG000FYM9P7</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>4.77</v>
+        <v>3.815</v>
       </c>
       <c r="C702" t="n">
-        <v>1.239</v>
+        <v>4.067</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>BBG00001K5F6</t>
+          <t>BBG007JNL349</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>2.416</v>
+        <v>4.385</v>
       </c>
       <c r="C703" t="n">
-        <v>0.702</v>
+        <v>1.192</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>BBG00HC3QXH3</t>
+          <t>BBG00JNJXWS4</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>3.745</v>
+        <v>4.444</v>
       </c>
       <c r="C704" t="n">
-        <v>1.917</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>BBG000FYM9P7</t>
-        </is>
-      </c>
-      <c r="B705" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="C705" t="n">
-        <v>4.067</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>BBG007JNL349</t>
-        </is>
-      </c>
-      <c r="B706" t="n">
-        <v>4.385</v>
-      </c>
-      <c r="C706" t="n">
-        <v>1.192</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>BBG00JNJXWS4</t>
-        </is>
-      </c>
-      <c r="B707" t="n">
-        <v>4.444</v>
-      </c>
-      <c r="C707" t="n">
         <v>2.25</v>
       </c>
     </row>
